--- a/ML_Comparison.xlsx
+++ b/ML_Comparison.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{CF2E3DD4-31BD-4001-8D24-68B3A048AF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197100B7-4C59-4029-8E93-CA76BE0A4D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="990" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine Learning Comparison" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Machine Learning Comparisons</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Random Forest Classifier (with boosting and oversampling)</t>
+  </si>
+  <si>
+    <t>n_est=128</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -923,6 +926,11 @@
       </c>
       <c r="L9">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -952,23 +960,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -1179,25 +1170,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB689626-6D88-4B0A-A80F-405161801F32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B004A38-A5B8-4A42-B850-C251FB56A667}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6421AC7D-8969-408A-A9C3-CE2F5D66D81A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1214,4 +1204,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B004A38-A5B8-4A42-B850-C251FB56A667}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB689626-6D88-4B0A-A80F-405161801F32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>